--- a/day11.xlsx
+++ b/day11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Analytics\excel\day 11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Data Analytics\gitdata\da25_repo2task\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF42AEE1-40F6-438D-8F90-9F87F80EE24E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B508514-817C-4476-B034-8D288A78BE0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9611,8 +9611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0290AE3C-3A94-46AE-BFFC-5A21E2D8C8AE}">
   <dimension ref="A1:R1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A975" workbookViewId="0">
-      <selection sqref="A1:L1001"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10289,6 +10289,10 @@
       <c r="L15" t="s">
         <v>59</v>
       </c>
+      <c r="N15">
+        <f>MAX(H1:H1001)</f>
+        <v>65</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
